--- a/xlsx/a69_f43_aUPPachuca.xlsx
+++ b/xlsx/a69_f43_aUPPachuca.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EVALUACION\EVALUACIÓN\2023\UPP-17-2023-12C\12C.1_1 (Transparencia Institucional)\SIPOT\3ER TRIMESTRE\UPP 3ER TRI 2023 SIPOT vo.bo.1\UPP 3ER TRI 2023 SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\CARGA PLATAFORMA\CORRECCION `PORTAL ESTATAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31FCADA-029B-4DA5-B999-1C0C4B1D156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>46791</t>
   </si>
@@ -166,14 +167,47 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>En términos de la Ley General de Contabilidad Gubernamental en su Art. 51 que a la letra dice " La información financiera que generen los entes públicos en cumplimiento de esta Ley será organizada, sistematizada y difundida por cada uno de éstos, al menos, trimestralmente en sus respectivas páginas electrónicas de internet, a más tardar 30 días después del cierre del período que corresponda..." y Art.58 que a la letra dice "La información financiera que deba incluirse en Internet en términos de este Título deberá publicarse por lo menos trimestralmente, ... dentro de los treinta días naturales siguientes al cierre del período que corresponda"</t>
+    <t>Ingresos por Venta de Bienes y Servicios de Organismos Descentralizados</t>
+  </si>
+  <si>
+    <t>Ingresos Propios</t>
+  </si>
+  <si>
+    <t>Ingresos Propios (UPP-Gobierno del Estado de Hidalgo)</t>
+  </si>
+  <si>
+    <t>Convenios</t>
+  </si>
+  <si>
+    <t>Subsidio Federal</t>
+  </si>
+  <si>
+    <t>Secretaría de Educación Pública</t>
+  </si>
+  <si>
+    <t>Subsidios y Subvenciones</t>
+  </si>
+  <si>
+    <t>Tesorería de la Federación</t>
+  </si>
+  <si>
+    <t>Subsidio Estatal</t>
+  </si>
+  <si>
+    <t>Gobierno del Estado de Hidalgo</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_diciembre_2023/04.estadopresupuestoegresos-cap-gto.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -193,6 +227,14 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -237,30 +279,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,11 +632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K6" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,16 +645,16 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="169.7109375" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -602,219 +662,403 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="210" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2023</v>
       </c>
-      <c r="B8" s="3">
-        <v>45108</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45199</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
+      <c r="B8" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="5">
+        <v>71</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="5">
+        <f>32563336.3</f>
+        <v>32563336.300000001</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="6">
+        <v>45291</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="3">
-        <v>45209</v>
-      </c>
-      <c r="M8" s="3">
-        <v>45209</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="L8" s="8">
+        <v>45301</v>
+      </c>
+      <c r="M8" s="8">
+        <v>45301</v>
+      </c>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D9" s="5">
+        <v>83</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5">
+        <f>435110.93</f>
+        <v>435110.93</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="6">
+        <v>45291</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="8">
+        <v>45301</v>
+      </c>
+      <c r="M9" s="8">
+        <v>45301</v>
+      </c>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D10" s="5">
+        <v>93</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="5">
+        <f>56579466.71</f>
+        <v>56579466.710000001</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="6">
+        <v>45291</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="8">
+        <v>45301</v>
+      </c>
+      <c r="M10" s="8">
+        <v>45301</v>
+      </c>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D11" s="5">
+        <v>93</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="5">
+        <f>56579466.71</f>
+        <v>56579466.710000001</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="6">
+        <v>45291</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="8">
+        <v>45301</v>
+      </c>
+      <c r="M11" s="8">
+        <v>45301</v>
+      </c>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D12" s="5">
+        <v>93</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5">
+        <v>109110.65</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="6">
+        <v>45291</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="8">
+        <v>45301</v>
+      </c>
+      <c r="M12" s="8">
+        <v>45301</v>
+      </c>
+      <c r="N12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -826,6 +1070,10 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J8" r:id="rId1" xr:uid="{C16F89F3-F424-4330-85A6-C9E5F2EBF4CE}"/>
+    <hyperlink ref="J9:J12" r:id="rId2" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_diciembre_2023/04.estadopresupuestoegresos-cap-gto.pdf" xr:uid="{95E4D845-92DC-46D0-B540-52A3FD4C28EF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>